--- a/Template/Export/Sari_R2_15.xlsx
+++ b/Template/Export/Sari_R2_15.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$P$62</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +310,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -551,6 +551,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D7F-4B76-9AC1-4E8EAECD4BF8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1006,13 +1011,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O60"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" style="21" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="21" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
